--- a/autoConditions/testConditions.xlsx
+++ b/autoConditions/testConditions.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>trainingaudio/02_pitito2.wav</t>
+          <t>trainingaudio/02_pitito1.wav</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>trainingaudio/03_kikita1.wav</t>
+          <t>trainingaudio/03_kikita2.wav</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>trainingaudio/07_pitapi3.wav</t>
+          <t>trainingaudio/07_pitapi1.wav</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>trainingaudio/08_tipako3.wav</t>
+          <t>trainingaudio/08_tipako1.wav</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>trainingaudio/10_tokiti2.wav</t>
+          <t>trainingaudio/10_tokiti3.wav</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>trainingaudio/11_tokiko2.wav</t>
+          <t>trainingaudio/11_tokiko3.wav</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>trainingaudio/13_kopopi3.wav</t>
+          <t>trainingaudio/13_kopopi2.wav</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>trainingaudio/14_pokoto3.wav</t>
+          <t>trainingaudio/14_pokoto2.wav</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>trainingaudio/18_popata1.wav</t>
+          <t>trainingaudio/18_popata3.wav</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>trainingaudio/19_papipi3.wav</t>
+          <t>trainingaudio/19_papipi2.wav</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>trainingaudio/25_tapapi2.wav</t>
+          <t>trainingaudio/25_tapapi3.wav</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>novelaudio28_pipiki2.wav</t>
+          <t>novelaudio/28_pipiki3.wav</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>novelaudio29_pipito2.wav</t>
+          <t>novelaudio/29_pipito1.wav</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>novelaudio30_tikipa2.wav</t>
+          <t>novelaudio/30_tikipa1.wav</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>novelaudio31_kikopi1.wav</t>
+          <t>novelaudio/31_kikopi1.wav</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>novelaudio32_kipoto3.wav</t>
+          <t>novelaudio/32_kipoto1.wav</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>novelaudio33_tipoka1.wav</t>
+          <t>novelaudio/33_tipoka1.wav</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>novelaudio34_kipaki1.wav</t>
+          <t>novelaudio/34_kipaki3.wav</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>novelaudio35_titato1.wav</t>
+          <t>novelaudio/35_titato1.wav</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>novelaudio36_pipapa1.wav</t>
+          <t>novelaudio/36_pipapa1.wav</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>novelaudio37_kokiti2.wav</t>
+          <t>novelaudio/37_kokiti3.wav</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>novelaudio38_kokiko3.wav</t>
+          <t>novelaudio/38_kokiko2.wav</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>novelaudio39_kotipa1.wav</t>
+          <t>novelaudio/39_kotipa1.wav</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>novelaudio40_kototi2.wav</t>
+          <t>novelaudio/40_kototi2.wav</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>novelaudio41_pototo3.wav</t>
+          <t>novelaudio/41_pototo3.wav</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>novelaudio42_tokota1.wav</t>
+          <t>novelaudio/42_tokota2.wav</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>novelaudio43_potaki1.wav</t>
+          <t>novelaudio/43_potaki1.wav</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>novelaudio44_pokato1.wav</t>
+          <t>novelaudio/44_pokato3.wav</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>novelaudio45_totaka3.wav</t>
+          <t>novelaudio/45_totaka1.wav</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>novelaudio46_tapiti3.wav</t>
+          <t>novelaudio/46_tapiti3.wav</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>novelaudio47_takiko2.wav</t>
+          <t>novelaudio/47_takiko3.wav</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>novelaudio48_pakipa3.wav</t>
+          <t>novelaudio/48_pakipa2.wav</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>novelaudio49_tatopi2.wav</t>
+          <t>novelaudio/49_tatopi3.wav</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>novelaudio50_katoko3.wav</t>
+          <t>novelaudio/50_katoko3.wav</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>novelaudio51_tapopa3.wav</t>
+          <t>novelaudio/51_tapopa2.wav</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>novelaudio52_pakaki2.wav</t>
+          <t>novelaudio/52_pakaki3.wav</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>novelaudio53_patapo3.wav</t>
+          <t>novelaudio/53_patapo3.wav</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>novelaudio54_kapapa3.wav</t>
+          <t>novelaudio/54_kapapa2.wav</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>novelaudio55_pikiki2.wav</t>
+          <t>novelaudio/55_pikiki3.wav</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>novelaudio56_pipiko2.wav</t>
+          <t>novelaudio/56_pipiko2.wav</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>novelaudio57_tipipa2.wav</t>
+          <t>novelaudio/57_tipipa1.wav</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>novelaudio58_kipoki1.wav</t>
+          <t>novelaudio/58_kipoki3.wav</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>novelaudio59_tipoko3.wav</t>
+          <t>novelaudio/59_tipoko1.wav</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>novelaudio60_pipopa2.wav</t>
+          <t>novelaudio/60_pipopa1.wav</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>novelaudio61_pikati1.wav</t>
+          <t>novelaudio/61_pikati1.wav</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>novelaudio62_pitako3.wav</t>
+          <t>novelaudio/62_pitako3.wav</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>novelaudio63_pitapa1.wav</t>
+          <t>novelaudio/63_pitapa1.wav</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>novelaudio64_popiti2.wav</t>
+          <t>novelaudio/64_popiti2.wav</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>novelaudio65_totipo2.wav</t>
+          <t>novelaudio/65_totipo2.wav</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>novelaudio66_kopipa2.wav</t>
+          <t>novelaudio/66_kopipa1.wav</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>novelaudio67_tokoki2.wav</t>
+          <t>novelaudio/67_tokoki3.wav</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>novelaudio68_pokopo2.wav</t>
+          <t>novelaudio/68_pokopo3.wav</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>novelaudio69_kotoka1.wav</t>
+          <t>novelaudio/69_kotoka1.wav</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>novelaudio70_kopati1.wav</t>
+          <t>novelaudio/70_kopati1.wav</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>novelaudio71_kotato3.wav</t>
+          <t>novelaudio/71_kotato3.wav</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>novelaudio72_topata3.wav</t>
+          <t>novelaudio/72_topata1.wav</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>novelaudio73_takiti2.wav</t>
+          <t>novelaudio/73_takiti3.wav</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>novelaudio74_tatiko2.wav</t>
+          <t>novelaudio/74_tatiko3.wav</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>novelaudio75_kakita3.wav</t>
+          <t>novelaudio/75_kakita3.wav</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>novelaudio76_patoti2.wav</t>
+          <t>novelaudio/76_patoti3.wav</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>novelaudio77_takopo3.wav</t>
+          <t>novelaudio/77_takopo3.wav</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>novelaudio78_kakoka3.wav</t>
+          <t>novelaudio/78_kakoka2.wav</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>novelaudio79_katapi3.wav</t>
+          <t>novelaudio/79_katapi2.wav</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>novelaudio80_tatato3.wav</t>
+          <t>novelaudio/80_tatato2.wav</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>novelaudio81_kakapa3.wav</t>
+          <t>novelaudio/81_kakapa2.wav</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
